--- a/fortunella/it/Fortunella IT .xlsx
+++ b/fortunella/it/Fortunella IT .xlsx
@@ -40,7 +40,7 @@
     <t>SCONTO</t>
   </si>
   <si>
-    <t>DEL 50%</t>
+    <t>50%</t>
   </si>
   <si>
     <t>Controlla l'appetito.</t>
@@ -220,7 +220,7 @@
     <t>la cellulite e le smagliature rimaste dopo la perdita di peso (al contrario delle diete rigide dopo le quali una persona si trova di fronte a smagliature e rilassamento della pelle).</t>
   </si>
   <si>
-    <t>Creatore del marchio Fortunella</t>
+    <t>Ideatore del marchio Fortunella</t>
   </si>
   <si>
     <t xml:space="preserve">- gocce a base di piante per dimagrire. Vanno bene per tutti coloro che tengono alla salute e vogliono rimettere in ordine la propria figura. </t>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
     </row>
